--- a/src/test/resources/etalon/combinesheets/CS_031_emptyRowChartHeadersFormattingBlankRow.xlsx
+++ b/src/test/resources/etalon/combinesheets/CS_031_emptyRowChartHeadersFormattingBlankRow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="27495" windowHeight="13485"/>
+    <workbookView xWindow="634" yWindow="557" windowWidth="27497" windowHeight="13483"/>
   </bookViews>
   <sheets>
     <sheet name="Combined data" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Column1</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>Row5</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>709</t>
   </si>
 </sst>
 </file>
@@ -343,11 +358,13 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -368,7 +385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -387,11 +404,11 @@
       <c r="F2" s="5">
         <v>100</v>
       </c>
-      <c r="G2" s="6">
-        <v>133</v>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -410,11 +427,11 @@
       <c r="F3" s="5">
         <v>200</v>
       </c>
-      <c r="G3" s="6">
-        <v>277</v>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -433,11 +450,11 @@
       <c r="F4" s="5">
         <v>300</v>
       </c>
-      <c r="G4" s="6">
-        <v>421</v>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -456,11 +473,11 @@
       <c r="F5" s="5">
         <v>400</v>
       </c>
-      <c r="G5" s="6">
-        <v>565</v>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -479,8 +496,8 @@
       <c r="F6" s="5">
         <v>500</v>
       </c>
-      <c r="G6" s="6">
-        <v>709</v>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
